--- a/biology/Zoologie/Aphidius_avenae/Aphidius_avenae.xlsx
+++ b/biology/Zoologie/Aphidius_avenae/Aphidius_avenae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphidius caraganae, Aphidius crithmi, Aphidius granarius, Aphidius hungaricus, Aphidius pascuorum, Aphidius picipes, Bracon picipes
-Aphidius avenae est une espèce d'insectes hyménoptères de la famille des Braconidae, de la sous-famille des Aphidiinae et mesurant entre 3 et 5 mm[1]. 
+Aphidius avenae est une espèce d'insectes hyménoptères de la famille des Braconidae, de la sous-famille des Aphidiinae et mesurant entre 3 et 5 mm. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette guêpe parasitoïde est un endoparasite des pucerons polyphages. Elle parasite entre autres le puceron du pois (Acyrthosiphon pisum) et certains pucerons des céréales (Sitobion avenae, Metopolophium dirhodum, Rhopalosiphum padi)[2]. La femelle parasitoïde pond ses œufs dans le puceron (jusqu'à 150 œufs par femelle au cours de sa vie). L’œuf se développe à l’intérieur du puceron. Une dizaine de jours après le parasitisme, la larve d’Aphidius fixe le puceron sur la feuille et tisse un cocon dans le puceron pour former une momie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette guêpe parasitoïde est un endoparasite des pucerons polyphages. Elle parasite entre autres le puceron du pois (Acyrthosiphon pisum) et certains pucerons des céréales (Sitobion avenae, Metopolophium dirhodum, Rhopalosiphum padi). La femelle parasitoïde pond ses œufs dans le puceron (jusqu'à 150 œufs par femelle au cours de sa vie). L’œuf se développe à l’intérieur du puceron. Une dizaine de jours après le parasitisme, la larve d’Aphidius fixe le puceron sur la feuille et tisse un cocon dans le puceron pour former une momie.
 Aphidius avenae est utilisé en lutte biologique contre les pucerons mais n'est que rarement commercialisé car d'autres espèces plus généralistes comme Aphidius ervi ou Aphidius colemani lui sont préférées.
 </t>
         </is>
